--- a/techniqo/data_new_ticker/AFFLE.xlsx
+++ b/techniqo/data_new_ticker/AFFLE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9941,6 +9941,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>3118</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3131</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2972</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3023.2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>134013</v>
+      </c>
+      <c r="G274" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3078</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2975</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3015.1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>43707</v>
+      </c>
+      <c r="G275" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/AFFLE.xlsx
+++ b/techniqo/data_new_ticker/AFFLE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9991,6 +9991,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>3030</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3119</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3016</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3036.15</v>
+      </c>
+      <c r="F276" t="n">
+        <v>59995</v>
+      </c>
+      <c r="G276" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>3079.95</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3088.95</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3011.05</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3035.1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>49123</v>
+      </c>
+      <c r="G277" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
